--- a/inventory exposure sim/uniswap_v3_lp_analysis_r2.xlsx
+++ b/inventory exposure sim/uniswap_v3_lp_analysis_r2.xlsx
@@ -518,13 +518,13 @@
         <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>6.521739130434767</v>
+        <v>-5.769230769230759</v>
       </c>
       <c r="G3" t="n">
-        <v>6.521739130434767</v>
+        <v>-5.607440880921888</v>
       </c>
       <c r="H3" t="n">
-        <v>100</v>
+        <v>97.19564193597957</v>
       </c>
     </row>
     <row r="4">
@@ -544,13 +544,13 @@
         <v>94.30671142324074</v>
       </c>
       <c r="F4" t="n">
-        <v>6.122448979591821</v>
+        <v>-5.454545454545467</v>
       </c>
       <c r="G4" t="n">
-        <v>5.940553930578352</v>
+        <v>-5.018312313404016</v>
       </c>
       <c r="H4" t="n">
-        <v>97.02904753277998</v>
+        <v>92.00239241240675</v>
       </c>
     </row>
     <row r="5">
@@ -570,13 +570,13 @@
         <v>89.33870168551361</v>
       </c>
       <c r="F5" t="n">
-        <v>5.769230769230771</v>
+        <v>-5.172413793103459</v>
       </c>
       <c r="G5" t="n">
-        <v>5.283452458712423</v>
+        <v>-4.521339728624496</v>
       </c>
       <c r="H5" t="n">
-        <v>91.57984261768198</v>
+        <v>87.41256808674007</v>
       </c>
     </row>
     <row r="6">
@@ -596,13 +596,13 @@
         <v>84.9395956627734</v>
       </c>
       <c r="F6" t="n">
-        <v>5.454545454545467</v>
+        <v>-4.91803278688524</v>
       </c>
       <c r="G6" t="n">
-        <v>4.735445298220209</v>
+        <v>-4.096946291451964</v>
       </c>
       <c r="H6" t="n">
-        <v>86.81649713403695</v>
+        <v>83.30457459285671</v>
       </c>
     </row>
     <row r="7">
@@ -622,13 +622,13 @@
         <v>80.99502875446767</v>
       </c>
       <c r="F7" t="n">
-        <v>5.172413793103448</v>
+        <v>-4.687499999999989</v>
       </c>
       <c r="G7" t="n">
-        <v>4.271966463031185</v>
+        <v>-3.730659797764002</v>
       </c>
       <c r="H7" t="n">
-        <v>82.59135161860291</v>
+        <v>79.58740901896556</v>
       </c>
     </row>
     <row r="8">
@@ -648,13 +648,13 @@
         <v>77.41935483870968</v>
       </c>
       <c r="F8" t="n">
-        <v>4.918032786885229</v>
+        <v>-4.477611940298509</v>
       </c>
       <c r="G8" t="n">
-        <v>3.875231501459231</v>
+        <v>-3.411562218035114</v>
       </c>
       <c r="H8" t="n">
-        <v>78.79637386300463</v>
+        <v>76.19155620278418</v>
       </c>
     </row>
     <row r="9">
@@ -674,13 +674,13 @@
         <v>74.14710944549122</v>
       </c>
       <c r="F9" t="n">
-        <v>4.6875</v>
+        <v>-4.285714285714293</v>
       </c>
       <c r="G9" t="n">
-        <v>3.532060665207415</v>
+        <v>-3.131269670282855</v>
       </c>
       <c r="H9" t="n">
-        <v>75.35062752442485</v>
+        <v>73.06295897326649</v>
       </c>
     </row>
     <row r="10">
@@ -700,13 +700,13 @@
         <v>71.12735333138347</v>
       </c>
       <c r="F10" t="n">
-        <v>4.47761194029852</v>
+        <v>-4.109589041095885</v>
       </c>
       <c r="G10" t="n">
-        <v>3.232487573260001</v>
+        <v>-2.883243076158815</v>
       </c>
       <c r="H10" t="n">
-        <v>72.19222246947315</v>
+        <v>70.15891485319791</v>
       </c>
     </row>
     <row r="11">
@@ -726,13 +726,13 @@
         <v>68.31982176721495</v>
       </c>
       <c r="F11" t="n">
-        <v>4.28571428571427</v>
+        <v>-3.947368421052622</v>
       </c>
       <c r="G11" t="n">
-        <v>2.968842007790529</v>
+        <v>-2.662311186069855</v>
       </c>
       <c r="H11" t="n">
-        <v>69.27298018177925</v>
+        <v>67.44521671376982</v>
       </c>
     </row>
     <row r="12">
@@ -752,13 +752,13 @@
         <v>65.69224017067373</v>
       </c>
       <c r="F12" t="n">
-        <v>4.109589041095885</v>
+        <v>-3.797468354430389</v>
       </c>
       <c r="G12" t="n">
-        <v>2.735128826778599</v>
+        <v>-2.464333596800128</v>
       </c>
       <c r="H12" t="n">
-        <v>66.55480145161266</v>
+        <v>64.89411804906989</v>
       </c>
     </row>
     <row r="13">
@@ -778,13 +778,13 @@
         <v>63.21841315714035</v>
       </c>
       <c r="F13" t="n">
-        <v>3.947368421052633</v>
+        <v>-3.658536585365857</v>
       </c>
       <c r="G13" t="n">
-        <v>2.526597385014928</v>
+        <v>-2.285958210903805</v>
       </c>
       <c r="H13" t="n">
-        <v>64.0071337537115</v>
+        <v>62.48285776470394</v>
       </c>
     </row>
     <row r="14">
@@ -804,13 +804,13 @@
         <v>60.87683853155664</v>
       </c>
       <c r="F14" t="n">
-        <v>3.797468354430378</v>
+        <v>-3.529411764705881</v>
       </c>
       <c r="G14" t="n">
-        <v>2.339436757551971</v>
+        <v>-2.124443737774862</v>
       </c>
       <c r="H14" t="n">
-        <v>61.60516794886861</v>
+        <v>60.19257257028777</v>
       </c>
     </row>
     <row r="15">
@@ -830,13 +830,13 @@
         <v>58.64968505091041</v>
       </c>
       <c r="F15" t="n">
-        <v>3.658536585365857</v>
+        <v>-3.409090909090906</v>
       </c>
       <c r="G15" t="n">
-        <v>2.170555978331423</v>
+        <v>-1.977527827510139</v>
       </c>
       <c r="H15" t="n">
-        <v>59.32853007439218</v>
+        <v>58.00748294029747</v>
       </c>
     </row>
     <row r="16">
@@ -856,13 +856,13 @@
         <v>56.52202701695128</v>
       </c>
       <c r="F16" t="n">
-        <v>3.52941176470587</v>
+        <v>-3.296703296703307</v>
       </c>
       <c r="G16" t="n">
-        <v>2.017422927295986</v>
+        <v>-1.843327761696856</v>
       </c>
       <c r="H16" t="n">
-        <v>57.16031627338649</v>
+        <v>55.91427543813779</v>
       </c>
     </row>
     <row r="17">
@@ -882,13 +882,13 @@
         <v>54.48126327762571</v>
       </c>
       <c r="F17" t="n">
-        <v>3.409090909090917</v>
+        <v>-3.191489361702127</v>
       </c>
       <c r="G17" t="n">
-        <v>1.877944432775447</v>
+        <v>-1.720264728470611</v>
       </c>
       <c r="H17" t="n">
-        <v>55.08637002807964</v>
+        <v>53.90162815874582</v>
       </c>
     </row>
     <row r="18">
@@ -908,13 +908,13 @@
         <v>52.51667067775475</v>
       </c>
       <c r="F18" t="n">
-        <v>3.296703296703285</v>
+        <v>-3.092783505154639</v>
       </c>
       <c r="G18" t="n">
-        <v>1.750375826428319</v>
+        <v>-1.607005421057017</v>
       </c>
       <c r="H18" t="n">
-        <v>53.09473340165919</v>
+        <v>51.95984194751022</v>
       </c>
     </row>
     <row r="19">
@@ -934,13 +934,13 @@
         <v>50.61905691088327</v>
       </c>
       <c r="F19" t="n">
-        <v>3.191489361702127</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.633251867100838</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>51.1752251691596</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
